--- a/algoritmit/tt2.xlsx
+++ b/algoritmit/tt2.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K8397\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K8397\lewrep\algoritmit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="t1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>a</t>
   </si>
@@ -43,15 +44,156 @@
   <si>
     <t>ei ole</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>nxn</t>
+  </si>
+  <si>
+    <t>peräkkäishaku</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>n x log(n)</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>puolitushaku</t>
+  </si>
+  <si>
+    <t>nopea lajit</t>
+  </si>
+  <si>
+    <r>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(n)</t>
+    </r>
+  </si>
+  <si>
+    <t>n!</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>n=0?</t>
+  </si>
+  <si>
+    <t>tulos</t>
+  </si>
+  <si>
+    <t>tutki_nopanheittoa(tulos)</t>
+  </si>
+  <si>
+    <t>lukum</t>
+  </si>
+  <si>
+    <t>heitot</t>
+  </si>
+  <si>
+    <t>V: Se palauttaa taulukon. Lukum:</t>
+  </si>
+  <si>
+    <t>[4,3,1,1,2,1]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,8 +219,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,6 +242,2281 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kuvaaja</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1:</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9435-40FA-85AE-B8883CFDDB57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9435-40FA-85AE-B8883CFDDB57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$13:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.3219280948873626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6438561897747253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.965784284662087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.287712379549451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.609640474436812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.931568569324174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.253496664211539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9435-40FA-85AE-B8883CFDDB57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>33.219280948873624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>664.38561897747252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9965.7842846620879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132877.1237954945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1660964.0474436812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19931568.569324173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>232534966.64211538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9435-40FA-85AE-B8883CFDDB57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1408883887"/>
+        <c:axId val="1408879311"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1408883887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1408879311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1408879311"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1408883887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C6F-4655-B169-B8F55CD343D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C6F-4655-B169-B8F55CD343D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$24:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.3219280948873626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3219280948873626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9068905956085187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3219280948873626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6438561897747244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9068905956085187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1292830169449672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3219280948873617</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4918530963296748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6438561897747253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6C6F-4655-B169-B8F55CD343D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$24:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33.219280948873624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.438561897747249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.20671786825557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212.8771237954945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>282.1928094887362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>354.41343573651113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>429.04981118614774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>505.75424759098894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>584.26677866967077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>664.38561897747252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6C6F-4655-B169-B8F55CD343D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$24:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1099511627776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1125899906842624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.152921504606847E+18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1805916207174113E+21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2089258196146292E+24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2379400392853803E+27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2676506002282294E+30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6C6F-4655-B169-B8F55CD343D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$24:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3628800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.43290200817664E+18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.652528598121911E+32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1591528324789801E+47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0414093201713376E+64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3209871127413899E+81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1978571669969892E+100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1569457046263797E+118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4857159644817605E+138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3326215443944175E+157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6C6F-4655-B169-B8F55CD343D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1408874735"/>
+        <c:axId val="1408882639"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1408874735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1408882639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1408882639"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1408874735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,10 +2782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:M1" si="0">C1+1</f>
+        <f t="shared" ref="D1:I1" si="0">C1+1</f>
         <v>3</v>
       </c>
       <c r="E1">
@@ -412,7 +2835,7 @@
         <v>112</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:M2" si="1">C4</f>
+        <f t="shared" ref="D2:E2" si="1">C4</f>
         <v>70</v>
       </c>
       <c r="E2">
@@ -432,7 +2855,7 @@
         <v>28</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="H2:M2" si="2">H4</f>
+        <f t="shared" ref="I2" si="2">H4</f>
         <v>14</v>
       </c>
     </row>
@@ -448,7 +2871,7 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:M3" si="3">C3</f>
+        <f t="shared" ref="D3:I3" si="3">C3</f>
         <v>42</v>
       </c>
       <c r="E3">
@@ -481,7 +2904,7 @@
         <v>112</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:M4" si="4">C2-C3</f>
+        <f t="shared" ref="C4:I4" si="4">C2-C3</f>
         <v>70</v>
       </c>
       <c r="D4">
@@ -531,6 +2954,970 @@
       </c>
       <c r="D9">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f>A13</f>
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f>A13*A13</f>
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <f>LOG(A13,2)</f>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="E13">
+        <f>A13*D13</f>
+        <v>33.219280948873624</v>
+      </c>
+      <c r="F13">
+        <f>POWER(2,A13)</f>
+        <v>1024</v>
+      </c>
+      <c r="G13">
+        <f>FACT(A13)</f>
+        <v>3628800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>A13*10</f>
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B19" si="5">A14</f>
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C19" si="6">A14*A14</f>
+        <v>10000</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D19" si="7">LOG(A14,2)</f>
+        <v>6.6438561897747253</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E19" si="8">A14*D14</f>
+        <v>664.38561897747252</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F19" si="9">POWER(2,A14)</f>
+        <v>1.2676506002282294E+30</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G19" si="10">FACT(A14)</f>
+        <v>9.3326215443944175E+157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ref="A15:A19" si="11">A14*10</f>
+        <v>1000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="6"/>
+        <v>1000000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="7"/>
+        <v>9.965784284662087</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="9"/>
+        <v>1.0715086071862673E+301</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="6"/>
+        <v>100000000</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="7"/>
+        <v>13.287712379549451</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="8"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="F16" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="11"/>
+        <v>100000</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="6"/>
+        <v>10000000000</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="7"/>
+        <v>16.609640474436812</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="8"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="F17" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="11"/>
+        <v>1000000</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="5"/>
+        <v>1000000</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="6"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="7"/>
+        <v>19.931568569324174</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="8"/>
+        <v>19931568.569324173</v>
+      </c>
+      <c r="F18" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="11"/>
+        <v>10000000</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="5"/>
+        <v>10000000</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="6"/>
+        <v>100000000000000</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>23.253496664211539</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="8"/>
+        <v>232534966.64211538</v>
+      </c>
+      <c r="F19" t="e">
+        <f t="shared" si="9"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f>A24</f>
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <f>A24*A24</f>
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <f>LOG(A24,2)</f>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="E24">
+        <f>A24*D24</f>
+        <v>33.219280948873624</v>
+      </c>
+      <c r="F24">
+        <f>POWER(2,A24)</f>
+        <v>1024</v>
+      </c>
+      <c r="G24">
+        <f>FACT(A24)</f>
+        <v>3628800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>A24+10</f>
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B33" si="12">A25</f>
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C33" si="13">A25*A25</f>
+        <v>400</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D33" si="14">LOG(A25,2)</f>
+        <v>4.3219280948873626</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E33" si="15">A25*D25</f>
+        <v>86.438561897747249</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F33" si="16">POWER(2,A25)</f>
+        <v>1048576</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G33" si="17">FACT(A25)</f>
+        <v>2.43290200817664E+18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A25+10</f>
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="13"/>
+        <v>900</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="14"/>
+        <v>4.9068905956085187</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="15"/>
+        <v>147.20671786825557</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="16"/>
+        <v>1073741824</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="17"/>
+        <v>2.652528598121911E+32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ref="A27:A33" si="18">A26+10</f>
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="13"/>
+        <v>1600</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="14"/>
+        <v>5.3219280948873626</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="15"/>
+        <v>212.8771237954945</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="16"/>
+        <v>1099511627776</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="17"/>
+        <v>8.1591528324789801E+47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="13"/>
+        <v>2500</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="14"/>
+        <v>5.6438561897747244</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="15"/>
+        <v>282.1928094887362</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="16"/>
+        <v>1125899906842624</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="17"/>
+        <v>3.0414093201713376E+64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="13"/>
+        <v>3600</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="14"/>
+        <v>5.9068905956085187</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="15"/>
+        <v>354.41343573651113</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="16"/>
+        <v>1.152921504606847E+18</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="17"/>
+        <v>8.3209871127413899E+81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="13"/>
+        <v>4900</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="14"/>
+        <v>6.1292830169449672</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="15"/>
+        <v>429.04981118614774</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="16"/>
+        <v>1.1805916207174113E+21</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="17"/>
+        <v>1.1978571669969892E+100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="18"/>
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="13"/>
+        <v>6400</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="14"/>
+        <v>6.3219280948873617</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="15"/>
+        <v>505.75424759098894</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="16"/>
+        <v>1.2089258196146292E+24</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="17"/>
+        <v>7.1569457046263797E+118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="13"/>
+        <v>8100</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="14"/>
+        <v>6.4918530963296748</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="15"/>
+        <v>584.26677866967077</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="16"/>
+        <v>1.2379400392853803E+27</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="17"/>
+        <v>1.4857159644817605E+138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="13"/>
+        <v>10000</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="14"/>
+        <v>6.6438561897747253</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="15"/>
+        <v>664.38561897747252</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="16"/>
+        <v>1.2676506002282294E+30</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="17"/>
+        <v>9.3326215443944175E+157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f>IF(A40=0,1,"-&gt;")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>A40+1</f>
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f t="shared" ref="B41:B61" si="19">IF(A41=0,1,"-&gt;")</f>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" ref="A42:A61" si="20">A41+1</f>
+        <v>2</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="B59" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>B1+1</f>
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:M1" si="0">C1+1</f>
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(B2:M2,B1)</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF(B2:N2,C1)</f>
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(A2:M2,D1)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIF(B2:M2,E1)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF(B2:M2,F1)</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(B2:M2,G1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
